--- a/Data/Code_compilation_checks.xlsx
+++ b/Data/Code_compilation_checks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erica.Williams\Documents\GitHub\Quantitative-Repro\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D0FF1E-8272-4ACE-AB39-A56D445FDF0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1111100-3403-480A-B831-F39A4F265763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{712AE1DA-099A-4817-B6D3-455B179756A7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="66">
   <si>
     <t>File: Maloney paper 2=10-2025_ELW</t>
   </si>
@@ -630,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE7A18F2-CDD1-4957-AFF9-0C7ECADF3DE7}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -808,6 +808,12 @@
       <c r="D10">
         <v>19</v>
       </c>
+      <c r="E10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10">
+        <v>203</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -822,6 +828,12 @@
       <c r="D11">
         <v>21</v>
       </c>
+      <c r="E11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11">
+        <v>212</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -836,6 +848,12 @@
       <c r="D12">
         <v>330</v>
       </c>
+      <c r="E12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12">
+        <v>216</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -850,6 +868,12 @@
       <c r="D13" t="s">
         <v>22</v>
       </c>
+      <c r="E13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13">
+        <v>238</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -864,6 +888,9 @@
       <c r="D14">
         <v>314</v>
       </c>
+      <c r="E14" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -878,6 +905,9 @@
       <c r="D15">
         <v>27</v>
       </c>
+      <c r="E15" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -889,6 +919,9 @@
       <c r="C16" t="s">
         <v>15</v>
       </c>
+      <c r="E16" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -902,6 +935,9 @@
       </c>
       <c r="D17" t="s">
         <v>27</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">

--- a/Data/Code_compilation_checks.xlsx
+++ b/Data/Code_compilation_checks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erica.Williams\Documents\GitHub\Quantitative-Repro\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1111100-3403-480A-B831-F39A4F265763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06AE03C8-508D-4DB0-B659-6107984F765E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{712AE1DA-099A-4817-B6D3-455B179756A7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="66">
   <si>
     <t>File: Maloney paper 2=10-2025_ELW</t>
   </si>
@@ -630,15 +630,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE7A18F2-CDD1-4957-AFF9-0C7ECADF3DE7}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.44140625" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
     <col min="4" max="4" width="12.77734375" customWidth="1"/>
     <col min="5" max="5" width="13.109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.5546875" customWidth="1"/>
@@ -953,6 +953,12 @@
       <c r="D18">
         <v>69</v>
       </c>
+      <c r="E18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18">
+        <v>304</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
@@ -964,6 +970,12 @@
       <c r="C19" t="s">
         <v>29</v>
       </c>
+      <c r="E19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19">
+        <v>334</v>
+      </c>
       <c r="G19" t="s">
         <v>32</v>
       </c>
@@ -981,6 +993,12 @@
       <c r="D20">
         <v>255</v>
       </c>
+      <c r="E20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20">
+        <v>378</v>
+      </c>
       <c r="G20" t="s">
         <v>34</v>
       </c>
@@ -995,6 +1013,12 @@
       <c r="C21" t="s">
         <v>29</v>
       </c>
+      <c r="E21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21">
+        <v>317</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -1006,6 +1030,12 @@
       <c r="C22" t="s">
         <v>29</v>
       </c>
+      <c r="E22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22">
+        <v>348</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -1020,6 +1050,12 @@
       <c r="D23">
         <v>257</v>
       </c>
+      <c r="E23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23">
+        <v>380</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -1034,6 +1070,12 @@
       <c r="D24">
         <v>126</v>
       </c>
+      <c r="E24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24">
+        <v>392</v>
+      </c>
       <c r="G24" t="s">
         <v>40</v>
       </c>
@@ -1051,6 +1093,12 @@
       <c r="D25">
         <v>607</v>
       </c>
+      <c r="E25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F25">
+        <v>399</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -1065,6 +1113,12 @@
       <c r="D26">
         <v>513</v>
       </c>
+      <c r="E26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26">
+        <v>446</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -1079,6 +1133,12 @@
       <c r="D27">
         <v>629</v>
       </c>
+      <c r="E27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27">
+        <v>411</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -1093,6 +1153,12 @@
       <c r="D28" t="s">
         <v>46</v>
       </c>
+      <c r="E28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28">
+        <v>469</v>
+      </c>
       <c r="G28" t="s">
         <v>47</v>
       </c>
@@ -1110,6 +1176,12 @@
       <c r="D29" t="s">
         <v>49</v>
       </c>
+      <c r="E29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F29">
+        <v>427</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
@@ -1124,6 +1196,12 @@
       <c r="D30">
         <v>512</v>
       </c>
+      <c r="E30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F30">
+        <v>451</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -1138,6 +1216,12 @@
       <c r="D31">
         <v>494</v>
       </c>
+      <c r="E31" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F31">
+        <v>506</v>
+      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
@@ -1152,8 +1236,14 @@
       <c r="D32">
         <v>24</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E32" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F32">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>54</v>
       </c>
@@ -1166,8 +1256,11 @@
       <c r="D33">
         <v>16</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E33" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>55</v>
       </c>
@@ -1180,8 +1273,14 @@
       <c r="D34">
         <v>589</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>56</v>
       </c>
@@ -1194,8 +1293,14 @@
       <c r="D35" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E35" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F35">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>58</v>
       </c>
@@ -1208,16 +1313,28 @@
       <c r="D36">
         <v>491</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E36" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F36">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>62</v>
       </c>
       <c r="B37">
         <v>42</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E37" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F37">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>59</v>
       </c>
@@ -1230,8 +1347,14 @@
       <c r="D38">
         <v>142</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E38" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F38">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>61</v>
       </c>
@@ -1244,8 +1367,11 @@
       <c r="D39">
         <v>336</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E39" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>63</v>
       </c>
@@ -1257,6 +1383,9 @@
       </c>
       <c r="D40">
         <v>48</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
